--- a/БД/Арендатор.xlsx
+++ b/БД/Арендатор.xlsx
@@ -1,87 +1,147 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28403"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vallc\OneDrive\Рабочий стол\Лабы\Course-3\БД\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAF7A68-B27B-48FC-AB25-EECC09B576D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="Арендатор"/>
+    <sheet name="Арендатор" sheetId="1" r:id="rId1"/>
+    <sheet name="Арендатор1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <definedNames>
+    <definedName name="Арендатор">Арендатор1!$A$1:$E$5</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+  <si>
+    <t>ID_Арендатора</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Дата_Регистрации</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Номер_Телефона</t>
+  </si>
+  <si>
+    <t>Смирнова А.В.</t>
+  </si>
+  <si>
+    <t>user_example1@mail.ru</t>
+  </si>
+  <si>
+    <t>8(999)999-99-99</t>
+  </si>
+  <si>
+    <t>Кузнецов И.П.</t>
+  </si>
+  <si>
+    <t>user_2@mail.ru</t>
+  </si>
+  <si>
+    <t>8(300)432-42-31</t>
+  </si>
+  <si>
+    <t>Петров А.В.</t>
+  </si>
+  <si>
+    <t>user_user3@yahoo.com</t>
+  </si>
+  <si>
+    <t>8(356)234-21-34</t>
+  </si>
+  <si>
+    <t>Иванова Е.М.</t>
+  </si>
+  <si>
+    <t>uuuser@gmail.com</t>
+  </si>
+  <si>
+    <t>8(567)385-56-34</t>
+  </si>
+  <si>
+    <t>+7 (999) 999-99-99</t>
+  </si>
+  <si>
+    <t>+7 (345) 928-45-56</t>
+  </si>
+  <si>
+    <t>+7 (245) 904-93-04</t>
+  </si>
+  <si>
+    <t>+7 (238) 494-58-39</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd-mmm-yy"/>
+    <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="MS Sans Serif"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <charset val="204"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="204"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="204"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="204"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="204"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="204"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <charset val="204"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -113,14 +173,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -129,10 +183,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FFE7E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE7E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE7E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE7E6E6"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -147,6 +210,7 @@
       <bottom style="thin">
         <color rgb="FFE7E6E6"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -161,6 +225,7 @@
       <bottom style="thin">
         <color rgb="FFE7E6E6"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -175,6 +240,7 @@
       <bottom style="thin">
         <color rgb="FFE7E6E6"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -186,71 +252,384 @@
       <top style="thin">
         <color rgb="FFE7E6E6"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFE7E6E6"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFE7E6E6"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFE7E6E6"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFE7E6E6"/>
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFill="1" applyProtection="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="left"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="general"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="5" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyNumberFormat="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="general"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC0C0C0"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFE7E6E6"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFE7E6E6"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFE7E6E6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFE7E6E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFE7E6E6"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFE7E6E6"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFE7E6E6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFE7E6E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFE7E6E6"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFE7E6E6"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFE7E6E6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFE7E6E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFE7E6E6"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFE7E6E6"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFE7E6E6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFE7E6E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFE7E6E6"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFE7E6E6"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFE7E6E6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFE7E6E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FFE7E6E6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFE7E6E6"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2AAEDDB2-FE14-4F10-A4EE-F789D0000872}" name="Таблица4" displayName="Таблица4" ref="A1:E5" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:E5" xr:uid="{2AAEDDB2-FE14-4F10-A4EE-F789D0000872}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0D353833-F661-4AFE-9434-720F731BD878}" name="ID_Арендатора" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C09DCAAF-56CC-4A00-820A-FE09C46394B4}" name="ФИО" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{AF3A1E3B-C031-49AE-8B5E-96AC03366E2B}" name="Дата_Регистрации" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{F6C9AAB3-97F5-436E-898C-24837EAFF247}" name="Email" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{37B726CA-69F4-4300-92CC-A24E1450D51C}" name="Номер_Телефона" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -288,7 +667,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -322,6 +701,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -356,9 +736,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -531,139 +912,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="true" min="1" max="1" width="16.9921875"/>
-    <col customWidth="true" min="2" max="2" width="18.515625"/>
-    <col customWidth="true" min="3" max="3" width="13.8359375"/>
-    <col customWidth="true" min="4" max="4" width="26.953125"/>
-    <col customWidth="true" min="5" max="5" width="18.1640625"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row outlineLevel="0" r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>ID_Арендатора</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>ФИО</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Дата_Регистрации</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Номер_Телефона</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>Смирнова А.В.</t>
-        </is>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
         <v>45415</v>
       </c>
-      <c r="D2" s="7" t="inlineStr">
-        <is>
-          <t>user_example1@mail.ru</t>
-        </is>
-      </c>
-      <c r="E2" s="7" t="inlineStr">
-        <is>
-          <t>8(999)999-99-99</t>
-        </is>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>Кузнецов И.П.</t>
-        </is>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
         <v>45415</v>
       </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>user_2@mail.ru</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>8(300)432-42-31</t>
-        </is>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>Петров А.В.</t>
-        </is>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
         <v>45413</v>
       </c>
-      <c r="D4" s="7" t="inlineStr">
-        <is>
-          <t>user_user3@yahoo.com</t>
-        </is>
-      </c>
-      <c r="E4" s="7" t="inlineStr">
-        <is>
-          <t>8(356)234-21-34</t>
-        </is>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row outlineLevel="0" r="5">
-      <c r="A5" s="4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>Иванова Е.М.</t>
-        </is>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7">
         <v>45415</v>
       </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>uuuser@gmail.com</t>
-        </is>
-      </c>
-      <c r="E5" s="7" t="inlineStr">
-        <is>
-          <t>8(567)385-56-34</t>
-        </is>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45415</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45415</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45413</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45415</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
